--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_business_consumer_services.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_business_consumer_services.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1515773275198769</v>
+        <v>0.2008165348303139</v>
       </c>
       <c r="H2">
-        <v>0.1515773275198769</v>
+        <v>0.2008165348303139</v>
       </c>
       <c r="I2">
-        <v>0.1693393990220713</v>
+        <v>0.1605001275835672</v>
       </c>
       <c r="J2">
-        <v>0.1594532494484817</v>
+        <v>0.1459953023889033</v>
       </c>
       <c r="K2">
-        <v>67.59999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="L2">
-        <v>0.173377789176712</v>
+        <v>0.1502934422046441</v>
       </c>
       <c r="M2">
-        <v>15.7</v>
+        <v>81.2</v>
       </c>
       <c r="N2">
-        <v>0.01824096665504821</v>
+        <v>0.1075924208294687</v>
       </c>
       <c r="O2">
-        <v>0.2322485207100592</v>
+        <v>1.378607809847199</v>
       </c>
       <c r="P2">
-        <v>15.7</v>
+        <v>81.2</v>
       </c>
       <c r="Q2">
-        <v>0.01824096665504821</v>
+        <v>0.1075924208294687</v>
       </c>
       <c r="R2">
-        <v>0.2322485207100592</v>
+        <v>1.378607809847199</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,64 +633,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>66</v>
+        <v>38.6</v>
       </c>
       <c r="V2">
-        <v>0.07668177065179504</v>
+        <v>0.05114615078839273</v>
+      </c>
+      <c r="W2">
+        <v>0.4153737658674189</v>
       </c>
       <c r="X2">
-        <v>0.0722050315429133</v>
+        <v>0.05889345716520324</v>
+      </c>
+      <c r="Y2">
+        <v>0.3564803087022156</v>
       </c>
       <c r="Z2">
-        <v>95.73168752264313</v>
+        <v>4.186518534344621</v>
       </c>
       <c r="AA2">
-        <v>15.26472865067211</v>
+        <v>0.6112120393783909</v>
       </c>
       <c r="AB2">
-        <v>0.071236498884321</v>
+        <v>0.05862708088799806</v>
       </c>
       <c r="AC2">
-        <v>15.19349215178779</v>
+        <v>0.5525849584903928</v>
       </c>
       <c r="AD2">
-        <v>19</v>
+        <v>5.25</v>
       </c>
       <c r="AE2">
-        <v>4.072841606472028</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.07284160647203</v>
+        <v>5.25</v>
       </c>
       <c r="AG2">
-        <v>-42.92715839352798</v>
+        <v>-33.35</v>
       </c>
       <c r="AH2">
-        <v>0.02610720823297933</v>
+        <v>0.006908349233502204</v>
       </c>
       <c r="AI2">
-        <v>0.1407113603717735</v>
+        <v>0.03550896178559351</v>
       </c>
       <c r="AJ2">
-        <v>-0.05249276597300519</v>
+        <v>-0.04623275802315104</v>
       </c>
       <c r="AK2">
-        <v>-0.4381536524780377</v>
+        <v>-0.3052631578947368</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.43</v>
+        <v>-1.66</v>
       </c>
       <c r="AN2">
-        <v>0.2701165766278078</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="AP2">
-        <v>-0.6102808984010232</v>
+        <v>-0.5015037593984962</v>
       </c>
       <c r="AQ2">
-        <v>-45.5944055944056</v>
+        <v>-37.89156626506024</v>
       </c>
     </row>
     <row r="3">
@@ -710,40 +716,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1515773275198769</v>
+        <v>0.2008165348303139</v>
       </c>
       <c r="H3">
-        <v>0.1515773275198769</v>
+        <v>0.2008165348303139</v>
       </c>
       <c r="I3">
-        <v>0.1693393990220713</v>
+        <v>0.1605001275835672</v>
       </c>
       <c r="J3">
-        <v>0.1594532494484817</v>
+        <v>0.1459953023889033</v>
       </c>
       <c r="K3">
-        <v>67.59999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="L3">
-        <v>0.173377789176712</v>
+        <v>0.1502934422046441</v>
       </c>
       <c r="M3">
-        <v>15.7</v>
+        <v>81.2</v>
       </c>
       <c r="N3">
-        <v>0.01824096665504821</v>
+        <v>0.1075924208294687</v>
       </c>
       <c r="O3">
-        <v>0.2322485207100592</v>
+        <v>1.378607809847199</v>
       </c>
       <c r="P3">
-        <v>15.7</v>
+        <v>81.2</v>
       </c>
       <c r="Q3">
-        <v>0.01824096665504821</v>
+        <v>0.1075924208294687</v>
       </c>
       <c r="R3">
-        <v>0.2322485207100592</v>
+        <v>1.378607809847199</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -752,64 +758,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>66</v>
+        <v>38.6</v>
       </c>
       <c r="V3">
-        <v>0.07668177065179504</v>
+        <v>0.05114615078839273</v>
+      </c>
+      <c r="W3">
+        <v>0.4153737658674189</v>
       </c>
       <c r="X3">
-        <v>0.0722050315429133</v>
+        <v>0.05889345716520324</v>
+      </c>
+      <c r="Y3">
+        <v>0.3564803087022156</v>
       </c>
       <c r="Z3">
-        <v>95.73168752264313</v>
+        <v>4.186518534344621</v>
       </c>
       <c r="AA3">
-        <v>15.26472865067211</v>
+        <v>0.6112120393783909</v>
       </c>
       <c r="AB3">
-        <v>0.071236498884321</v>
+        <v>0.05862708088799806</v>
       </c>
       <c r="AC3">
-        <v>15.19349215178779</v>
+        <v>0.5525849584903928</v>
       </c>
       <c r="AD3">
-        <v>19</v>
+        <v>5.25</v>
       </c>
       <c r="AE3">
-        <v>4.072841606472028</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>23.07284160647203</v>
+        <v>5.25</v>
       </c>
       <c r="AG3">
-        <v>-42.92715839352798</v>
+        <v>-33.35</v>
       </c>
       <c r="AH3">
-        <v>0.02610720823297933</v>
+        <v>0.006908349233502204</v>
       </c>
       <c r="AI3">
-        <v>0.1407113603717735</v>
+        <v>0.03550896178559351</v>
       </c>
       <c r="AJ3">
-        <v>-0.05249276597300519</v>
+        <v>-0.04623275802315104</v>
       </c>
       <c r="AK3">
-        <v>-0.4381536524780377</v>
+        <v>-0.3052631578947368</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.43</v>
+        <v>-1.66</v>
       </c>
       <c r="AN3">
-        <v>0.2701165766278078</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="AP3">
-        <v>-0.6102808984010232</v>
+        <v>-0.5015037593984962</v>
       </c>
       <c r="AQ3">
-        <v>-45.5944055944056</v>
+        <v>-37.89156626506024</v>
       </c>
     </row>
   </sheetData>
